--- a/class.xlsx
+++ b/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕设\yolov5-streamlit-main\yolov5-streamlit-main\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63BB273B-873E-4908-A65B-9FFDA725D3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30100D25-B59F-4EAE-8294-5F5B1E076BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{83E57C41-A349-42C2-A21F-4D9C39FB8804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{83E57C41-A349-42C2-A21F-4D9C39FB8804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
   <si>
     <t>图像1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +52,36 @@
   </si>
   <si>
     <t>truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像2</t>
+  </si>
+  <si>
+    <t>图像1</t>
+  </si>
+  <si>
+    <t>image1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorcycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,84 +446,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAE1FFD-D685-4C38-85D0-23607C9611BE}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/class.xlsx
+++ b/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕设\yolov5-streamlit-main\yolov5-streamlit-main\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30100D25-B59F-4EAE-8294-5F5B1E076BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D6D908-4419-49F5-AA2F-0488C83E45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{83E57C41-A349-42C2-A21F-4D9C39FB8804}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{83E57C41-A349-42C2-A21F-4D9C39FB8804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>图像1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>图像4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAE1FFD-D685-4C38-85D0-23607C9611BE}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -457,7 +465,7 @@
     <col min="1" max="1" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -470,8 +478,14 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,8 +498,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -498,8 +518,14 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,8 +538,14 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -526,8 +558,14 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -540,8 +578,14 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -554,8 +598,14 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -568,8 +618,14 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -582,8 +638,14 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -596,8 +658,14 @@
       <c r="D10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -610,8 +678,14 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -624,8 +698,14 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -638,8 +718,14 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -647,13 +733,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -664,10 +756,16 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -678,10 +776,16 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -692,66 +796,72 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -759,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -767,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -775,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -783,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>11</v>
       </c>
